--- a/data/pca/factorExposure/factorExposure_2018-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01471586423771795</v>
+        <v>-0.0190394283104369</v>
       </c>
       <c r="C2">
-        <v>-0.0240751992610252</v>
+        <v>0.01678612700997634</v>
       </c>
       <c r="D2">
-        <v>-0.01313526698675177</v>
+        <v>0.02931838428061119</v>
       </c>
       <c r="E2">
-        <v>0.01361966651549314</v>
+        <v>0.01578108454742824</v>
       </c>
       <c r="F2">
-        <v>0.1139312023919009</v>
+        <v>-0.003870277949244747</v>
       </c>
       <c r="G2">
-        <v>-0.07297046361586335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04500524460041096</v>
+      </c>
+      <c r="H2">
+        <v>0.04703308743222676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09107841509751126</v>
+        <v>-0.08121451069508051</v>
       </c>
       <c r="C3">
-        <v>-0.006253075761855252</v>
+        <v>-0.01520788249023946</v>
       </c>
       <c r="D3">
-        <v>-0.07529720748892776</v>
+        <v>0.05780095111470679</v>
       </c>
       <c r="E3">
-        <v>0.0882794836850072</v>
+        <v>0.01391868666927205</v>
       </c>
       <c r="F3">
-        <v>0.3956330641861435</v>
+        <v>0.01761325488802075</v>
       </c>
       <c r="G3">
-        <v>-0.2365475229468934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1728534032598808</v>
+      </c>
+      <c r="H3">
+        <v>0.1486002610603227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04113022464823936</v>
+        <v>-0.04655953245669787</v>
       </c>
       <c r="C4">
-        <v>0.001974769612444176</v>
+        <v>0.001307822912828917</v>
       </c>
       <c r="D4">
-        <v>0.005109421465440666</v>
+        <v>0.05706698842006625</v>
       </c>
       <c r="E4">
-        <v>-0.04708160891832888</v>
+        <v>-0.01814810571190094</v>
       </c>
       <c r="F4">
-        <v>0.08041291042541085</v>
+        <v>-0.04559327405661908</v>
       </c>
       <c r="G4">
-        <v>-0.04326149721935789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03976217115094841</v>
+      </c>
+      <c r="H4">
+        <v>0.05793556020267016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02890399805823773</v>
+        <v>-0.0276618049055878</v>
       </c>
       <c r="C6">
-        <v>-0.009816241683111786</v>
+        <v>-0.001560223169263018</v>
       </c>
       <c r="D6">
-        <v>-0.004249644087419149</v>
+        <v>0.05920921659431519</v>
       </c>
       <c r="E6">
-        <v>-0.02127345100739704</v>
+        <v>-0.004111685425427851</v>
       </c>
       <c r="F6">
-        <v>0.01313761759185019</v>
+        <v>-0.030770252326122</v>
       </c>
       <c r="G6">
-        <v>0.01422402011315718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01112460421939058</v>
+      </c>
+      <c r="H6">
+        <v>0.0625183894029675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01879554109323699</v>
+        <v>-0.0220369809222053</v>
       </c>
       <c r="C7">
-        <v>-0.001305229041159548</v>
+        <v>0.0007009795626570325</v>
       </c>
       <c r="D7">
-        <v>-0.01439815367302917</v>
+        <v>0.03016648937958098</v>
       </c>
       <c r="E7">
-        <v>-0.02550764893019114</v>
+        <v>-0.04178957175387284</v>
       </c>
       <c r="F7">
-        <v>0.05066748787231479</v>
+        <v>-0.002531590727463866</v>
       </c>
       <c r="G7">
-        <v>-0.06708504426068586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02440082881132316</v>
+      </c>
+      <c r="H7">
+        <v>0.03857202928740829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01549041424081645</v>
+        <v>-0.006809849084220535</v>
       </c>
       <c r="C8">
-        <v>-0.007783494471110237</v>
+        <v>-0.002744154386728732</v>
       </c>
       <c r="D8">
-        <v>-0.009317592159205383</v>
+        <v>0.01283923256164172</v>
       </c>
       <c r="E8">
-        <v>-0.03500763673678599</v>
+        <v>-0.006101032521491926</v>
       </c>
       <c r="F8">
-        <v>0.102352644663663</v>
+        <v>-0.01853777370161982</v>
       </c>
       <c r="G8">
-        <v>-0.05329539779147365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04146341697656383</v>
+      </c>
+      <c r="H8">
+        <v>0.0422348872994578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03218938810743616</v>
+        <v>-0.03654307895308025</v>
       </c>
       <c r="C9">
-        <v>-0.003838568359019694</v>
+        <v>-0.001345170856242655</v>
       </c>
       <c r="D9">
-        <v>-0.00381932861576214</v>
+        <v>0.04172465055489625</v>
       </c>
       <c r="E9">
-        <v>-0.03762532823443706</v>
+        <v>-0.006918039370360397</v>
       </c>
       <c r="F9">
-        <v>0.09748608721526873</v>
+        <v>-0.02244044903088772</v>
       </c>
       <c r="G9">
-        <v>-0.0452848892628298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04664919572106522</v>
+      </c>
+      <c r="H9">
+        <v>0.05650030378120418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03715595586455483</v>
+        <v>-0.1045735156709831</v>
       </c>
       <c r="C10">
-        <v>0.07289998540199696</v>
+        <v>7.132551560342333e-05</v>
       </c>
       <c r="D10">
-        <v>0.06369168177321678</v>
+        <v>-0.1682994200789932</v>
       </c>
       <c r="E10">
-        <v>0.1294592447403053</v>
+        <v>0.001767055913480434</v>
       </c>
       <c r="F10">
-        <v>0.04700753861080456</v>
+        <v>0.03617086971584375</v>
       </c>
       <c r="G10">
-        <v>-0.01568901926610219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0296246788140709</v>
+      </c>
+      <c r="H10">
+        <v>0.002279345603152968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03045449193952561</v>
+        <v>-0.02265957874154033</v>
       </c>
       <c r="C11">
-        <v>-0.02171472963879141</v>
+        <v>-0.0125540703943029</v>
       </c>
       <c r="D11">
-        <v>-0.01163493428848532</v>
+        <v>0.04558046653645129</v>
       </c>
       <c r="E11">
-        <v>-0.02776846595051323</v>
+        <v>0.00171488184401803</v>
       </c>
       <c r="F11">
-        <v>0.05351688597921266</v>
+        <v>-0.01249375439626283</v>
       </c>
       <c r="G11">
-        <v>-0.02056740775149851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0278107143269343</v>
+      </c>
+      <c r="H11">
+        <v>0.0499577423522128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03892396233470009</v>
+        <v>-0.02752808161787128</v>
       </c>
       <c r="C12">
-        <v>-0.0256421935431578</v>
+        <v>-0.009016874573600574</v>
       </c>
       <c r="D12">
-        <v>-0.004698473364925687</v>
+        <v>0.04425750362900685</v>
       </c>
       <c r="E12">
-        <v>-0.03490351466539688</v>
+        <v>-0.008252927992486897</v>
       </c>
       <c r="F12">
-        <v>0.02654932421356927</v>
+        <v>-0.01533737288979709</v>
       </c>
       <c r="G12">
-        <v>-0.01301870701978023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008649893286635464</v>
+      </c>
+      <c r="H12">
+        <v>0.02193179936262407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01379198237440683</v>
+        <v>-0.02905885247391521</v>
       </c>
       <c r="C13">
-        <v>-0.01903898159834795</v>
+        <v>0.01251207469776136</v>
       </c>
       <c r="D13">
-        <v>0.00229041939831894</v>
+        <v>0.01747113650702026</v>
       </c>
       <c r="E13">
-        <v>0.002425880768149617</v>
+        <v>0.01356055174069589</v>
       </c>
       <c r="F13">
-        <v>0.08718456605339416</v>
+        <v>-0.02137140690144696</v>
       </c>
       <c r="G13">
-        <v>-0.04671754352361909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06029405021760007</v>
+      </c>
+      <c r="H13">
+        <v>0.07447203734047052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01449997094405321</v>
+        <v>-0.01888695298397419</v>
       </c>
       <c r="C14">
-        <v>0.000677231329256051</v>
+        <v>0.000116819979833002</v>
       </c>
       <c r="D14">
-        <v>0.0005512286400799406</v>
+        <v>0.01159857331115208</v>
       </c>
       <c r="E14">
-        <v>-0.02793654975473736</v>
+        <v>-0.012484011003292</v>
       </c>
       <c r="F14">
-        <v>0.06083310652100719</v>
+        <v>-0.01418657810815733</v>
       </c>
       <c r="G14">
-        <v>-0.05365799607474549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04002369639859951</v>
+      </c>
+      <c r="H14">
+        <v>0.01305776055602425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0278713997029904</v>
+        <v>-0.02416897899826316</v>
       </c>
       <c r="C16">
-        <v>-0.02988410688546765</v>
+        <v>-0.01190102747299954</v>
       </c>
       <c r="D16">
-        <v>-0.006891572317386861</v>
+        <v>0.03760719251702228</v>
       </c>
       <c r="E16">
-        <v>-0.02368922206525554</v>
+        <v>-0.001893421923592597</v>
       </c>
       <c r="F16">
-        <v>0.0499999508815917</v>
+        <v>-0.01603132924913045</v>
       </c>
       <c r="G16">
-        <v>-0.02085083545065248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02362683759603821</v>
+      </c>
+      <c r="H16">
+        <v>0.03767264051615282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03184815449875451</v>
+        <v>-0.03144392568253299</v>
       </c>
       <c r="C19">
-        <v>-0.02113057607870398</v>
+        <v>-0.001412660621058716</v>
       </c>
       <c r="D19">
-        <v>-0.01505627526245084</v>
+        <v>0.03647153780281108</v>
       </c>
       <c r="E19">
-        <v>-0.0254290012231432</v>
+        <v>-0.003595058012000501</v>
       </c>
       <c r="F19">
-        <v>0.1044656205653542</v>
+        <v>-0.02511562328904111</v>
       </c>
       <c r="G19">
-        <v>-0.05751969055599481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05591768737066547</v>
+      </c>
+      <c r="H19">
+        <v>0.06214380308941914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003316981265062008</v>
+        <v>-0.01166194514222946</v>
       </c>
       <c r="C20">
-        <v>0.001955712550067469</v>
+        <v>0.004149999529902167</v>
       </c>
       <c r="D20">
-        <v>0.0001736559227470445</v>
+        <v>0.02002399660057164</v>
       </c>
       <c r="E20">
-        <v>-0.02151307351394883</v>
+        <v>-0.003615900569332916</v>
       </c>
       <c r="F20">
-        <v>0.07973957193678732</v>
+        <v>-0.0143903661147878</v>
       </c>
       <c r="G20">
-        <v>-0.07790588635653052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05200120030262035</v>
+      </c>
+      <c r="H20">
+        <v>0.02726743233508903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001475651835570848</v>
+        <v>-0.0171981351368508</v>
       </c>
       <c r="C21">
-        <v>0.01444487302201205</v>
+        <v>0.005425110088120485</v>
       </c>
       <c r="D21">
-        <v>-0.02021217296359266</v>
+        <v>0.02154070305534346</v>
       </c>
       <c r="E21">
-        <v>-0.03356244828686752</v>
+        <v>-0.01767397139412233</v>
       </c>
       <c r="F21">
-        <v>0.04168883199693585</v>
+        <v>-0.01005195760293921</v>
       </c>
       <c r="G21">
-        <v>-0.01022426840297683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04755359304260071</v>
+      </c>
+      <c r="H21">
+        <v>0.04295732416602673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02736934311996326</v>
+        <v>-0.0197457359645901</v>
       </c>
       <c r="C24">
-        <v>-0.01886280335649548</v>
+        <v>-0.00651753968205729</v>
       </c>
       <c r="D24">
-        <v>-0.000389630378311469</v>
+        <v>0.04108097085091457</v>
       </c>
       <c r="E24">
-        <v>-0.01380856502210375</v>
+        <v>-0.0002502019607708636</v>
       </c>
       <c r="F24">
-        <v>0.04940345360361478</v>
+        <v>-0.01081531668255161</v>
       </c>
       <c r="G24">
-        <v>-0.01904425161353595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01771702842257963</v>
+      </c>
+      <c r="H24">
+        <v>0.04615089504428151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02831663452947815</v>
+        <v>-0.03194083731588498</v>
       </c>
       <c r="C25">
-        <v>-0.01568866382352818</v>
+        <v>-0.004438442069416974</v>
       </c>
       <c r="D25">
-        <v>-0.01470927206017557</v>
+        <v>0.04182382680245678</v>
       </c>
       <c r="E25">
-        <v>-0.02640977157201839</v>
+        <v>-0.005471165858366209</v>
       </c>
       <c r="F25">
-        <v>0.0526792918703983</v>
+        <v>-0.01865824771972065</v>
       </c>
       <c r="G25">
-        <v>-0.0103082875061726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02189381374175431</v>
+      </c>
+      <c r="H25">
+        <v>0.04292615921682848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01873498087038485</v>
+        <v>-0.01734930623269019</v>
       </c>
       <c r="C26">
-        <v>-0.01292964741874564</v>
+        <v>0.01819820633725874</v>
       </c>
       <c r="D26">
-        <v>-0.01942231903940612</v>
+        <v>0.008252884604281304</v>
       </c>
       <c r="E26">
-        <v>0.000429346156526221</v>
+        <v>0.0001382778146099402</v>
       </c>
       <c r="F26">
-        <v>0.0689317599785402</v>
+        <v>-0.00194713342874322</v>
       </c>
       <c r="G26">
-        <v>-0.0449706445075089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03052919964487905</v>
+      </c>
+      <c r="H26">
+        <v>0.02438415625866345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05232368644627416</v>
+        <v>-0.02075907531545235</v>
       </c>
       <c r="C27">
-        <v>-0.01575465104606543</v>
+        <v>-0.00785433071818443</v>
       </c>
       <c r="D27">
-        <v>0.02382946292650737</v>
+        <v>0.01364529929268568</v>
       </c>
       <c r="E27">
-        <v>-0.03541546137073053</v>
+        <v>-0.002835392541950104</v>
       </c>
       <c r="F27">
-        <v>0.04359315192544044</v>
+        <v>-0.011460240169362</v>
       </c>
       <c r="G27">
-        <v>-0.05087029548702206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009811599638761041</v>
+      </c>
+      <c r="H27">
+        <v>-0.004444769910029614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06505687759275149</v>
+        <v>-0.1547160487133054</v>
       </c>
       <c r="C28">
-        <v>0.09802698733560763</v>
+        <v>0.009188598795862445</v>
       </c>
       <c r="D28">
-        <v>0.08959121396060074</v>
+        <v>-0.2204748152639006</v>
       </c>
       <c r="E28">
-        <v>0.1605071456174731</v>
+        <v>-0.006676387086244633</v>
       </c>
       <c r="F28">
-        <v>0.04533524535666479</v>
+        <v>0.0306257170909651</v>
       </c>
       <c r="G28">
-        <v>-0.01427918276977754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01679011908841313</v>
+      </c>
+      <c r="H28">
+        <v>-0.007202524473540362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01915406512510929</v>
+        <v>-0.02380445033772838</v>
       </c>
       <c r="C29">
-        <v>0.0002761982137564887</v>
+        <v>-0.001594889759937478</v>
       </c>
       <c r="D29">
-        <v>0.001817834546827005</v>
+        <v>0.0116716341069966</v>
       </c>
       <c r="E29">
-        <v>-0.0360510133245338</v>
+        <v>-0.01292469885411913</v>
       </c>
       <c r="F29">
-        <v>0.06021867047444174</v>
+        <v>-0.01609308022641301</v>
       </c>
       <c r="G29">
-        <v>-0.04197077053020289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03908812013659695</v>
+      </c>
+      <c r="H29">
+        <v>0.004730087518839938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0792425949219558</v>
+        <v>-0.05309670115449146</v>
       </c>
       <c r="C30">
-        <v>-0.04826021812451046</v>
+        <v>-0.002117496323031414</v>
       </c>
       <c r="D30">
-        <v>0.004593855913142984</v>
+        <v>0.08858100907131937</v>
       </c>
       <c r="E30">
-        <v>-0.05657666673161627</v>
+        <v>0.03276252597942919</v>
       </c>
       <c r="F30">
-        <v>0.1108368284488862</v>
+        <v>-0.04787812694431767</v>
       </c>
       <c r="G30">
-        <v>-0.06106810700172612</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05980767172336351</v>
+      </c>
+      <c r="H30">
+        <v>0.07840172779837207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05834841723752518</v>
+        <v>-0.05022444495154644</v>
       </c>
       <c r="C31">
-        <v>-0.0275876303696324</v>
+        <v>-0.01132510943685519</v>
       </c>
       <c r="D31">
-        <v>-0.005586958382600317</v>
+        <v>0.02301526622247496</v>
       </c>
       <c r="E31">
-        <v>-0.01004585816063162</v>
+        <v>0.004854599099471039</v>
       </c>
       <c r="F31">
-        <v>0.0527157268054003</v>
+        <v>-0.003883118002476597</v>
       </c>
       <c r="G31">
-        <v>-0.05287995453315698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0189448075640084</v>
+      </c>
+      <c r="H31">
+        <v>0.002149848034510965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0155384798037875</v>
+        <v>-0.01144487431830763</v>
       </c>
       <c r="C32">
-        <v>-0.00288092836489223</v>
+        <v>-0.0137973331577078</v>
       </c>
       <c r="D32">
-        <v>-0.009935259306723735</v>
+        <v>0.009837253745120095</v>
       </c>
       <c r="E32">
-        <v>-0.06783156475686897</v>
+        <v>-0.02906618228502946</v>
       </c>
       <c r="F32">
-        <v>0.07917552747058856</v>
+        <v>-0.03919546072116143</v>
       </c>
       <c r="G32">
-        <v>-0.04097044315126393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0303041339334941</v>
+      </c>
+      <c r="H32">
+        <v>0.05670148262756403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04211815259525318</v>
+        <v>-0.03514954267473899</v>
       </c>
       <c r="C33">
-        <v>-0.03380828081395031</v>
+        <v>-0.001974770884566502</v>
       </c>
       <c r="D33">
-        <v>-0.03502331651448733</v>
+        <v>0.03773465879435801</v>
       </c>
       <c r="E33">
-        <v>-0.02278302504779942</v>
+        <v>0.02209401135399201</v>
       </c>
       <c r="F33">
-        <v>0.08387285059057804</v>
+        <v>0.0009887087008920656</v>
       </c>
       <c r="G33">
-        <v>-0.0564408024973073</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04570817844840068</v>
+      </c>
+      <c r="H33">
+        <v>0.04888123965566808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02693091193762423</v>
+        <v>-0.02971755510050043</v>
       </c>
       <c r="C34">
-        <v>-0.02109512610195853</v>
+        <v>-0.02020007538835715</v>
       </c>
       <c r="D34">
-        <v>-0.007303316309506526</v>
+        <v>0.03796192518183797</v>
       </c>
       <c r="E34">
-        <v>-0.03032197723111475</v>
+        <v>-0.01177533525313023</v>
       </c>
       <c r="F34">
-        <v>0.05708333458347804</v>
+        <v>-0.01804945500002181</v>
       </c>
       <c r="G34">
-        <v>-0.01735649410252872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01431111800431209</v>
+      </c>
+      <c r="H34">
+        <v>0.03672546171599823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01408957294978946</v>
+        <v>-0.01836834257095502</v>
       </c>
       <c r="C36">
-        <v>0.001451021299897714</v>
+        <v>0.005858771490068119</v>
       </c>
       <c r="D36">
-        <v>-0.004902539742278259</v>
+        <v>0.00380718349862448</v>
       </c>
       <c r="E36">
-        <v>-0.02265350715578635</v>
+        <v>-0.007431384087129756</v>
       </c>
       <c r="F36">
-        <v>0.03936175731845558</v>
+        <v>-0.002339383127923612</v>
       </c>
       <c r="G36">
-        <v>-0.03188836578995224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02153283595986761</v>
+      </c>
+      <c r="H36">
+        <v>0.01605261372456253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002658666441571512</v>
+        <v>-0.02673849193758412</v>
       </c>
       <c r="C38">
-        <v>0.003853613752606361</v>
+        <v>-0.01656234330801333</v>
       </c>
       <c r="D38">
-        <v>-0.01776477644143025</v>
+        <v>0.011868655292121</v>
       </c>
       <c r="E38">
-        <v>0.02916514952867859</v>
+        <v>0.0005764745672595806</v>
       </c>
       <c r="F38">
-        <v>0.03695489340153402</v>
+        <v>-0.009194977467785833</v>
       </c>
       <c r="G38">
-        <v>-0.01094351355632306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02328047274782148</v>
+      </c>
+      <c r="H38">
+        <v>0.04478705442232122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02831014189410117</v>
+        <v>-0.01891942077023654</v>
       </c>
       <c r="C39">
-        <v>-0.03982610296039186</v>
+        <v>-0.009945514680822522</v>
       </c>
       <c r="D39">
-        <v>-0.01495678330363908</v>
+        <v>0.08590646214365684</v>
       </c>
       <c r="E39">
-        <v>-0.03033741676099241</v>
+        <v>0.007556978130573357</v>
       </c>
       <c r="F39">
-        <v>0.0687067802222557</v>
+        <v>-0.01781341750646701</v>
       </c>
       <c r="G39">
-        <v>-0.02828870314007532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04048670642099023</v>
+      </c>
+      <c r="H39">
+        <v>0.07816082569469936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03210674799968432</v>
+        <v>-0.03115364309169482</v>
       </c>
       <c r="C40">
-        <v>-0.06399274248559331</v>
+        <v>-0.00247163905005572</v>
       </c>
       <c r="D40">
-        <v>0.01536979492124888</v>
+        <v>0.03048514908970178</v>
       </c>
       <c r="E40">
-        <v>0.0009687148528664529</v>
+        <v>0.02573191987652013</v>
       </c>
       <c r="F40">
-        <v>0.09035477447230131</v>
+        <v>-0.03397639889906573</v>
       </c>
       <c r="G40">
-        <v>-0.04802252652739672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02150708127931775</v>
+      </c>
+      <c r="H40">
+        <v>0.06517712723572498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001664350553593522</v>
+        <v>-0.01147902184430127</v>
       </c>
       <c r="C41">
-        <v>0.002102560124971245</v>
+        <v>0.003295496632406691</v>
       </c>
       <c r="D41">
-        <v>-0.01046227024569847</v>
+        <v>-0.01501640043773102</v>
       </c>
       <c r="E41">
-        <v>-0.0009952899222653074</v>
+        <v>0.0004818342850454839</v>
       </c>
       <c r="F41">
-        <v>0.01518853347887309</v>
+        <v>0.004015759047778148</v>
       </c>
       <c r="G41">
-        <v>-0.05224989607322834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001019093081817911</v>
+      </c>
+      <c r="H41">
+        <v>-0.005743586585328841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.351160862640054</v>
+        <v>-0.167506801485057</v>
       </c>
       <c r="C42">
-        <v>0.07124239041882396</v>
+        <v>0.06263423426513855</v>
       </c>
       <c r="D42">
-        <v>-0.7658836627078474</v>
+        <v>0.2414307693655867</v>
       </c>
       <c r="E42">
-        <v>0.3596970481148281</v>
+        <v>0.2096572685208188</v>
       </c>
       <c r="F42">
-        <v>-0.3081241306241693</v>
+        <v>0.8980023816056082</v>
       </c>
       <c r="G42">
-        <v>-0.1571775672101671</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1984684574324284</v>
+      </c>
+      <c r="H42">
+        <v>0.007543622041226155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.000347202776177258</v>
+        <v>-0.01434817217527884</v>
       </c>
       <c r="C43">
-        <v>0.001924745428375594</v>
+        <v>0.00325471446990358</v>
       </c>
       <c r="D43">
-        <v>-0.01281337428207492</v>
+        <v>-0.01326729186071474</v>
       </c>
       <c r="E43">
-        <v>-0.002241133866536328</v>
+        <v>0.003565072362471796</v>
       </c>
       <c r="F43">
-        <v>0.03442052832885829</v>
+        <v>0.0048083165643669</v>
       </c>
       <c r="G43">
-        <v>-0.04844533344927916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002481645256171431</v>
+      </c>
+      <c r="H43">
+        <v>0.008218804523768827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01621553127704061</v>
+        <v>-0.02049308219186472</v>
       </c>
       <c r="C44">
-        <v>0.003819611631101932</v>
+        <v>-0.006406479915498596</v>
       </c>
       <c r="D44">
-        <v>-0.01270084391601724</v>
+        <v>0.03291824895810824</v>
       </c>
       <c r="E44">
-        <v>0.001893324712085856</v>
+        <v>-0.006016253573024674</v>
       </c>
       <c r="F44">
-        <v>0.1120223353065134</v>
+        <v>-0.001233716653086767</v>
       </c>
       <c r="G44">
-        <v>-0.08544283795638635</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04112706037365659</v>
+      </c>
+      <c r="H44">
+        <v>0.06469351139326458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01954178882329721</v>
+        <v>-0.01620924095870315</v>
       </c>
       <c r="C46">
-        <v>-0.01661942989363936</v>
+        <v>0.004326416273151027</v>
       </c>
       <c r="D46">
-        <v>-0.01814958337899236</v>
+        <v>0.01320656757440569</v>
       </c>
       <c r="E46">
-        <v>-0.03761071363146937</v>
+        <v>0.001566196795252721</v>
       </c>
       <c r="F46">
-        <v>0.07706690047889185</v>
+        <v>-0.0113508743628287</v>
       </c>
       <c r="G46">
-        <v>-0.05756108012514629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04470581148661487</v>
+      </c>
+      <c r="H46">
+        <v>0.007445044753176058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09076434413465106</v>
+        <v>-0.07382271063070169</v>
       </c>
       <c r="C47">
-        <v>-0.02939743447419263</v>
+        <v>-0.02879683288546223</v>
       </c>
       <c r="D47">
-        <v>0.00553329768054852</v>
+        <v>0.04741988486169781</v>
       </c>
       <c r="E47">
-        <v>-0.02991793933851357</v>
+        <v>-0.001609244799999814</v>
       </c>
       <c r="F47">
-        <v>0.04247397459924934</v>
+        <v>-0.01471175187563179</v>
       </c>
       <c r="G47">
-        <v>-0.08374935474972367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008407705959065934</v>
+      </c>
+      <c r="H47">
+        <v>-0.02359326944719012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.017885371777438</v>
+        <v>-0.02118794392622312</v>
       </c>
       <c r="C48">
-        <v>-0.007097157131892917</v>
+        <v>-0.005742228806024793</v>
       </c>
       <c r="D48">
-        <v>-0.01001045145543957</v>
+        <v>0.01055066683302528</v>
       </c>
       <c r="E48">
-        <v>-0.02152804398560901</v>
+        <v>-4.931063568007492e-06</v>
       </c>
       <c r="F48">
-        <v>0.04238756824214901</v>
+        <v>-0.007009285087059618</v>
       </c>
       <c r="G48">
-        <v>-0.02395658280232775</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02301898963952452</v>
+      </c>
+      <c r="H48">
+        <v>0.01788341965866712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08616027366528703</v>
+        <v>-0.07164638808285879</v>
       </c>
       <c r="C50">
-        <v>-0.02904159851841532</v>
+        <v>-0.02581895706928248</v>
       </c>
       <c r="D50">
-        <v>-0.01571970075818884</v>
+        <v>0.04656430775650433</v>
       </c>
       <c r="E50">
-        <v>-0.03149441872849483</v>
+        <v>-0.01441178313638443</v>
       </c>
       <c r="F50">
-        <v>0.04545464702525859</v>
+        <v>-0.006531346158708814</v>
       </c>
       <c r="G50">
-        <v>-0.03624689101847373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006341585394920535</v>
+      </c>
+      <c r="H50">
+        <v>-0.006121720187286388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01579104437317764</v>
+        <v>-0.02116407343250493</v>
       </c>
       <c r="C51">
-        <v>0.006837804626672292</v>
+        <v>0.0005478804687415788</v>
       </c>
       <c r="D51">
-        <v>0.001888530389912004</v>
+        <v>0.005830581868722573</v>
       </c>
       <c r="E51">
-        <v>0.01595638260493824</v>
+        <v>-0.005899196792441807</v>
       </c>
       <c r="F51">
-        <v>0.09502134316239422</v>
+        <v>-0.002927314134960736</v>
       </c>
       <c r="G51">
-        <v>-0.06767448084881772</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03748291280052055</v>
+      </c>
+      <c r="H51">
+        <v>0.04955338025289044</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09976472698980872</v>
+        <v>-0.08873104238686916</v>
       </c>
       <c r="C53">
-        <v>-0.04195094153304166</v>
+        <v>-0.03725089857791346</v>
       </c>
       <c r="D53">
-        <v>0.002765576328867073</v>
+        <v>0.08350003311922323</v>
       </c>
       <c r="E53">
-        <v>-0.04851478019942666</v>
+        <v>-0.003882924219514374</v>
       </c>
       <c r="F53">
-        <v>-0.02508324520112321</v>
+        <v>-0.02940489316979865</v>
       </c>
       <c r="G53">
-        <v>-0.02043229464670248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03767107030755685</v>
+      </c>
+      <c r="H53">
+        <v>-0.03577350241025506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01551185381150506</v>
+        <v>-0.02834608058219457</v>
       </c>
       <c r="C54">
-        <v>0.003160933584090734</v>
+        <v>-0.008102851374885872</v>
       </c>
       <c r="D54">
-        <v>0.001163883573734449</v>
+        <v>-0.01277322441891053</v>
       </c>
       <c r="E54">
-        <v>-0.03179638581767755</v>
+        <v>-0.006131977795070859</v>
       </c>
       <c r="F54">
-        <v>0.05090145334924392</v>
+        <v>-0.006442321246000043</v>
       </c>
       <c r="G54">
-        <v>-0.04917347123927632</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03813714145466146</v>
+      </c>
+      <c r="H54">
+        <v>0.001367711329631727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09990840606394268</v>
+        <v>-0.07460319345166315</v>
       </c>
       <c r="C55">
-        <v>-0.0209812887289572</v>
+        <v>-0.03354100525534039</v>
       </c>
       <c r="D55">
-        <v>-0.001715056822766203</v>
+        <v>0.0783238759358518</v>
       </c>
       <c r="E55">
-        <v>-0.06565981566972295</v>
+        <v>-0.0128598503932817</v>
       </c>
       <c r="F55">
-        <v>-0.01597033846816658</v>
+        <v>-0.02068240156042663</v>
       </c>
       <c r="G55">
-        <v>-0.04989055009031537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01511306390237394</v>
+      </c>
+      <c r="H55">
+        <v>-0.04505416276403292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1428464106273591</v>
+        <v>-0.1227721743485069</v>
       </c>
       <c r="C56">
-        <v>-0.05757345718659357</v>
+        <v>-0.05537200234424117</v>
       </c>
       <c r="D56">
-        <v>0.04366072625961789</v>
+        <v>0.1015802770081937</v>
       </c>
       <c r="E56">
-        <v>-0.07351908698022509</v>
+        <v>-0.005915284238731738</v>
       </c>
       <c r="F56">
-        <v>-0.05852093300068095</v>
+        <v>-0.05307892038936689</v>
       </c>
       <c r="G56">
-        <v>0.0242403288824416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07173624711019178</v>
+      </c>
+      <c r="H56">
+        <v>-0.06090925318604305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04457750564688326</v>
+        <v>-0.03720648589976561</v>
       </c>
       <c r="C57">
-        <v>-0.01911330282781193</v>
+        <v>0.01097028836980736</v>
       </c>
       <c r="D57">
-        <v>-0.01328633509954158</v>
+        <v>0.03220055502362799</v>
       </c>
       <c r="E57">
-        <v>0.01441923100191963</v>
+        <v>0.01160911485180919</v>
       </c>
       <c r="F57">
-        <v>0.05390579718516172</v>
+        <v>-0.007262237828271319</v>
       </c>
       <c r="G57">
-        <v>-0.04251542213959436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07261974327074863</v>
+      </c>
+      <c r="H57">
+        <v>0.04912247793459287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2121589644483121</v>
+        <v>-0.1379316028610398</v>
       </c>
       <c r="C58">
-        <v>-0.1209573549640553</v>
+        <v>-0.04771284409938677</v>
       </c>
       <c r="D58">
-        <v>-0.09432037952600793</v>
+        <v>0.1526890370507105</v>
       </c>
       <c r="E58">
-        <v>-0.08444351050068374</v>
+        <v>0.2207871002202247</v>
       </c>
       <c r="F58">
-        <v>0.4051243724242237</v>
+        <v>0.07391424471715624</v>
       </c>
       <c r="G58">
-        <v>-0.006745623765014866</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.812965344771837</v>
+      </c>
+      <c r="H58">
+        <v>-0.3899107972474596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05718221654480884</v>
+        <v>-0.166443614062185</v>
       </c>
       <c r="C59">
-        <v>0.0511364321236976</v>
+        <v>0.0004839362260879791</v>
       </c>
       <c r="D59">
-        <v>0.1035726090352448</v>
+        <v>-0.2186324015101564</v>
       </c>
       <c r="E59">
-        <v>0.1521118178030261</v>
+        <v>0.01223220697965311</v>
       </c>
       <c r="F59">
-        <v>0.06332941661053258</v>
+        <v>0.003459532592224459</v>
       </c>
       <c r="G59">
-        <v>0.02130809716745556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01865522270242937</v>
+      </c>
+      <c r="H59">
+        <v>0.02699517628154711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.150485258531784</v>
+        <v>-0.1909270475224736</v>
       </c>
       <c r="C60">
-        <v>-0.07946138944008135</v>
+        <v>-0.0280933275323722</v>
       </c>
       <c r="D60">
-        <v>-0.02139113600978677</v>
+        <v>0.02490553287908808</v>
       </c>
       <c r="E60">
-        <v>0.09603381548244683</v>
+        <v>0.05222439664046586</v>
       </c>
       <c r="F60">
-        <v>0.1752976074019534</v>
+        <v>-0.05673523409828526</v>
       </c>
       <c r="G60">
-        <v>0.3186924781817102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02754920552771707</v>
+      </c>
+      <c r="H60">
+        <v>0.3723587059320775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02121114894445268</v>
+        <v>-0.02351501813839683</v>
       </c>
       <c r="C61">
-        <v>-0.02409952534240182</v>
+        <v>-0.0118731082282305</v>
       </c>
       <c r="D61">
-        <v>-0.01239446709299418</v>
+        <v>0.05315665841118968</v>
       </c>
       <c r="E61">
-        <v>-0.02371176783066903</v>
+        <v>-0.001513250332782145</v>
       </c>
       <c r="F61">
-        <v>0.03463750594602948</v>
+        <v>-0.02153795364619387</v>
       </c>
       <c r="G61">
-        <v>-0.01119677368815277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02578263653063556</v>
+      </c>
+      <c r="H61">
+        <v>0.0586547170389897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009167506014351498</v>
+        <v>-0.01293325056720417</v>
       </c>
       <c r="C63">
-        <v>-0.01532851244744513</v>
+        <v>0.0008595768414209254</v>
       </c>
       <c r="D63">
-        <v>-0.01987057753025658</v>
+        <v>0.0216532963473166</v>
       </c>
       <c r="E63">
-        <v>-0.02559479221985809</v>
+        <v>-0.004461937978216433</v>
       </c>
       <c r="F63">
-        <v>0.01486198421953817</v>
+        <v>-0.01011733402452715</v>
       </c>
       <c r="G63">
-        <v>-0.07324124605474282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01669865283938986</v>
+      </c>
+      <c r="H63">
+        <v>0.01233226213878917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03653932140325596</v>
+        <v>-0.04127197405058574</v>
       </c>
       <c r="C64">
-        <v>0.005184434964892229</v>
+        <v>-0.01126359469764221</v>
       </c>
       <c r="D64">
-        <v>0.001117678466330998</v>
+        <v>0.03780515314554254</v>
       </c>
       <c r="E64">
-        <v>-0.05534520020945478</v>
+        <v>-0.01110476447905461</v>
       </c>
       <c r="F64">
-        <v>0.04484215294277535</v>
+        <v>-0.004780433998521671</v>
       </c>
       <c r="G64">
-        <v>-0.0546415757438446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005669774647677661</v>
+      </c>
+      <c r="H64">
+        <v>0.04166292977190858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03234591046381341</v>
+        <v>-0.03902965841082655</v>
       </c>
       <c r="C65">
-        <v>-0.01189273576199045</v>
+        <v>-0.004319328047615889</v>
       </c>
       <c r="D65">
-        <v>-0.004183002832004142</v>
+        <v>0.07169835147447268</v>
       </c>
       <c r="E65">
-        <v>-0.02352582707441763</v>
+        <v>-0.007694114578378984</v>
       </c>
       <c r="F65">
-        <v>0.008194533529852289</v>
+        <v>-0.03924969633160071</v>
       </c>
       <c r="G65">
-        <v>0.02047951148402196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003088370516233149</v>
+      </c>
+      <c r="H65">
+        <v>0.07444226409393494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03277370398569068</v>
+        <v>-0.02848782433206368</v>
       </c>
       <c r="C66">
-        <v>-0.05203604368723656</v>
+        <v>-0.01777328444643526</v>
       </c>
       <c r="D66">
-        <v>-0.01240538620942714</v>
+        <v>0.106033885753535</v>
       </c>
       <c r="E66">
-        <v>-0.04448980330687976</v>
+        <v>0.009853979775947392</v>
       </c>
       <c r="F66">
-        <v>0.05608364913990523</v>
+        <v>-0.03951841770988156</v>
       </c>
       <c r="G66">
-        <v>-0.009620904135888869</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03781673472955686</v>
+      </c>
+      <c r="H66">
+        <v>0.08302099144533967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0115277663311407</v>
+        <v>-0.0470076593369154</v>
       </c>
       <c r="C67">
-        <v>-0.003782381295081459</v>
+        <v>-0.01836030929228372</v>
       </c>
       <c r="D67">
-        <v>-0.008494609933792866</v>
+        <v>0.0119386066556375</v>
       </c>
       <c r="E67">
-        <v>0.03327918018741442</v>
+        <v>0.003356143770862027</v>
       </c>
       <c r="F67">
-        <v>0.02033384988376136</v>
+        <v>-0.01933579573813968</v>
       </c>
       <c r="G67">
-        <v>-0.002109341032468843</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01242481163395714</v>
+      </c>
+      <c r="H67">
+        <v>0.04550739168151937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07497142984316302</v>
+        <v>-0.1609382224067899</v>
       </c>
       <c r="C68">
-        <v>0.07074441689084678</v>
+        <v>0.02473357754281832</v>
       </c>
       <c r="D68">
-        <v>0.1162109738125434</v>
+        <v>-0.2350961253625655</v>
       </c>
       <c r="E68">
-        <v>0.1565744826313153</v>
+        <v>0.007880891819875</v>
       </c>
       <c r="F68">
-        <v>0.04908761493748041</v>
+        <v>0.04006241918821441</v>
       </c>
       <c r="G68">
-        <v>0.05755975533397286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02617256600695374</v>
+      </c>
+      <c r="H68">
+        <v>-0.04900973255568936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06549668541041039</v>
+        <v>-0.06176141086929314</v>
       </c>
       <c r="C69">
-        <v>-0.04114891512254448</v>
+        <v>-0.02948666976801159</v>
       </c>
       <c r="D69">
-        <v>0.01517998874738865</v>
+        <v>0.04426452781809519</v>
       </c>
       <c r="E69">
-        <v>-0.01851381281694127</v>
+        <v>-0.000743622298122056</v>
       </c>
       <c r="F69">
-        <v>0.03010818528670299</v>
+        <v>-0.02753952178020386</v>
       </c>
       <c r="G69">
-        <v>-0.07474226660387846</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01194778996353383</v>
+      </c>
+      <c r="H69">
+        <v>0.006483732049296701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0785549055805919</v>
+        <v>-0.1502825557457519</v>
       </c>
       <c r="C71">
-        <v>0.0725391240043739</v>
+        <v>0.01136134912722423</v>
       </c>
       <c r="D71">
-        <v>0.09540267052227909</v>
+        <v>-0.1958428559582379</v>
       </c>
       <c r="E71">
-        <v>0.2095166468376386</v>
+        <v>0.01534557451020338</v>
       </c>
       <c r="F71">
-        <v>0.0433327413558184</v>
+        <v>0.04819652482378382</v>
       </c>
       <c r="G71">
-        <v>-0.01787289445556533</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02952538198433798</v>
+      </c>
+      <c r="H71">
+        <v>-0.02275387547030392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1115904974176076</v>
+        <v>-0.0784668276597404</v>
       </c>
       <c r="C72">
-        <v>-0.06959690600710662</v>
+        <v>-0.04010485185657617</v>
       </c>
       <c r="D72">
-        <v>0.03005003399677859</v>
+        <v>0.0762774931297291</v>
       </c>
       <c r="E72">
-        <v>-0.03603165718854649</v>
+        <v>0.01701356875545924</v>
       </c>
       <c r="F72">
-        <v>0.07669231616284991</v>
+        <v>-0.0663088580012462</v>
       </c>
       <c r="G72">
-        <v>0.1097659033010091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02367471943262874</v>
+      </c>
+      <c r="H72">
+        <v>0.1329379217600104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2148480541244186</v>
+        <v>-0.2558760636772041</v>
       </c>
       <c r="C73">
-        <v>-0.1096795158928546</v>
+        <v>-0.04268954067175567</v>
       </c>
       <c r="D73">
-        <v>-0.0287576852295387</v>
+        <v>0.08848701230201012</v>
       </c>
       <c r="E73">
-        <v>0.1820483912370272</v>
+        <v>0.09215970458910562</v>
       </c>
       <c r="F73">
-        <v>0.2156822393583229</v>
+        <v>-0.06437458831358399</v>
       </c>
       <c r="G73">
-        <v>0.4660980664879835</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04550755197398096</v>
+      </c>
+      <c r="H73">
+        <v>0.4826331825561997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1358618282188985</v>
+        <v>-0.118433833169181</v>
       </c>
       <c r="C74">
-        <v>-0.03331201013405795</v>
+        <v>-0.05432499338537337</v>
       </c>
       <c r="D74">
-        <v>0.01218019790074966</v>
+        <v>0.1067358516643757</v>
       </c>
       <c r="E74">
-        <v>-0.05193941474699802</v>
+        <v>-0.008479136455151854</v>
       </c>
       <c r="F74">
-        <v>-0.07419378864056719</v>
+        <v>-0.03641390653451765</v>
       </c>
       <c r="G74">
-        <v>-0.008091328046039363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0588472326306991</v>
+      </c>
+      <c r="H74">
+        <v>-0.02741424863982764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2288528075718698</v>
+        <v>-0.2291709631481049</v>
       </c>
       <c r="C75">
-        <v>-0.1021046595542632</v>
+        <v>-0.1007442038050058</v>
       </c>
       <c r="D75">
-        <v>0.08776011403541027</v>
+        <v>0.1618717065685182</v>
       </c>
       <c r="E75">
-        <v>-0.1016422073283332</v>
+        <v>0.01026275028940251</v>
       </c>
       <c r="F75">
-        <v>-0.09116523088634337</v>
+        <v>-0.09964079786794441</v>
       </c>
       <c r="G75">
-        <v>-0.0211099668777438</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.120494090790341</v>
+      </c>
+      <c r="H75">
+        <v>-0.1361532485017587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2783379883351884</v>
+        <v>-0.1933598828792358</v>
       </c>
       <c r="C76">
-        <v>-0.09362234319334861</v>
+        <v>-0.09328071120649352</v>
       </c>
       <c r="D76">
-        <v>0.1214199463959065</v>
+        <v>0.1598997093961538</v>
       </c>
       <c r="E76">
-        <v>-0.1579014026359169</v>
+        <v>-0.03762793847620315</v>
       </c>
       <c r="F76">
-        <v>-0.1603718963348578</v>
+        <v>-0.09451657008438917</v>
       </c>
       <c r="G76">
-        <v>0.01112806861402887</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1147524190702118</v>
+      </c>
+      <c r="H76">
+        <v>-0.1338112268853375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1295132267712752</v>
+        <v>-0.07113494876450729</v>
       </c>
       <c r="C77">
-        <v>-0.04739444093059352</v>
+        <v>-0.01458990656120406</v>
       </c>
       <c r="D77">
-        <v>-0.08579695455464187</v>
+        <v>0.07642405999406578</v>
       </c>
       <c r="E77">
-        <v>-0.04878943089252707</v>
+        <v>0.01636170478312548</v>
       </c>
       <c r="F77">
-        <v>0.1896013166037543</v>
+        <v>0.01495551224461154</v>
       </c>
       <c r="G77">
-        <v>-0.237723880007521</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08151824568188767</v>
+      </c>
+      <c r="H77">
+        <v>0.01251001910688141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07382269828081896</v>
+        <v>-0.04004279684018423</v>
       </c>
       <c r="C78">
-        <v>-0.04263854585404489</v>
+        <v>-0.01530606612700722</v>
       </c>
       <c r="D78">
-        <v>-0.04380511814288202</v>
+        <v>0.06600185934744845</v>
       </c>
       <c r="E78">
-        <v>-0.07686229126181293</v>
+        <v>-0.0003839768224169628</v>
       </c>
       <c r="F78">
-        <v>0.1150348176484112</v>
+        <v>-0.02112963952189991</v>
       </c>
       <c r="G78">
-        <v>-0.03133922475902661</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06514424076795081</v>
+      </c>
+      <c r="H78">
+        <v>0.08471898305285991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2459811632814988</v>
+        <v>-0.1407740962922478</v>
       </c>
       <c r="C80">
-        <v>0.8651453898914919</v>
+        <v>-0.03657216474379506</v>
       </c>
       <c r="D80">
-        <v>-0.04493650667529415</v>
+        <v>0.07801539107882048</v>
       </c>
       <c r="E80">
-        <v>-0.3781815040677033</v>
+        <v>-0.9337173535516804</v>
       </c>
       <c r="F80">
-        <v>0.06669688915865532</v>
+        <v>0.2156285750617586</v>
       </c>
       <c r="G80">
-        <v>0.132918321725644</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.164361354591969</v>
+      </c>
+      <c r="H80">
+        <v>0.004492837211042528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1789184254276688</v>
+        <v>-0.1540271227271676</v>
       </c>
       <c r="C81">
-        <v>-0.07135686927539113</v>
+        <v>-0.06620041639606679</v>
       </c>
       <c r="D81">
-        <v>0.08731508436235021</v>
+        <v>0.1040774153215035</v>
       </c>
       <c r="E81">
-        <v>-0.08835676149744187</v>
+        <v>-0.009882356502719718</v>
       </c>
       <c r="F81">
-        <v>-0.104041289904179</v>
+        <v>-0.06769397483090099</v>
       </c>
       <c r="G81">
-        <v>0.01222053566721906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08063684949428282</v>
+      </c>
+      <c r="H81">
+        <v>-0.08953188918601995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03369604090890584</v>
+        <v>-0.03281414182372448</v>
       </c>
       <c r="C83">
-        <v>-0.02436543785200732</v>
+        <v>-0.006582806341269423</v>
       </c>
       <c r="D83">
-        <v>-0.01971390529786397</v>
+        <v>0.02453033594498192</v>
       </c>
       <c r="E83">
-        <v>-0.001459786131697282</v>
+        <v>0.008595099474464662</v>
       </c>
       <c r="F83">
-        <v>0.06813495848230458</v>
+        <v>-0.01005609165455845</v>
       </c>
       <c r="G83">
-        <v>-0.04115518875321807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04783407228215626</v>
+      </c>
+      <c r="H83">
+        <v>0.04072037088560829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2596948298243245</v>
+        <v>-0.214562166651698</v>
       </c>
       <c r="C85">
-        <v>-0.0926347575527901</v>
+        <v>-0.08526308908492208</v>
       </c>
       <c r="D85">
-        <v>0.09261398869697481</v>
+        <v>0.1686161734618062</v>
       </c>
       <c r="E85">
-        <v>-0.1186838476674248</v>
+        <v>0.003989194575790916</v>
       </c>
       <c r="F85">
-        <v>-0.1075792907707754</v>
+        <v>-0.08462092551116457</v>
       </c>
       <c r="G85">
-        <v>-0.02306672433281056</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.131912322271755</v>
+      </c>
+      <c r="H85">
+        <v>-0.09595819125665232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005223601129788571</v>
+        <v>-0.02652441476034603</v>
       </c>
       <c r="C86">
-        <v>0.002705217342743553</v>
+        <v>-0.004613442556088962</v>
       </c>
       <c r="D86">
-        <v>-0.0285575737422178</v>
+        <v>0.03470857492978651</v>
       </c>
       <c r="E86">
-        <v>-0.03103145186565658</v>
+        <v>0.0002232254386341061</v>
       </c>
       <c r="F86">
-        <v>0.07813005267958753</v>
+        <v>0.000861415109655525</v>
       </c>
       <c r="G86">
-        <v>-0.05364628173856109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05544803069933916</v>
+      </c>
+      <c r="H86">
+        <v>0.09440769957158816</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04176236420639741</v>
+        <v>-0.02625702996552347</v>
       </c>
       <c r="C87">
-        <v>0.00280117678337552</v>
+        <v>-0.005174385282990893</v>
       </c>
       <c r="D87">
-        <v>-0.0221538811752021</v>
+        <v>0.04572848363281484</v>
       </c>
       <c r="E87">
-        <v>-0.01369387250683269</v>
+        <v>-0.003446333824950575</v>
       </c>
       <c r="F87">
-        <v>0.1143274232293349</v>
+        <v>-0.005282079409046027</v>
       </c>
       <c r="G87">
-        <v>-0.03881557023185812</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08113384205519275</v>
+      </c>
+      <c r="H87">
+        <v>0.07985698268314485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01277944315084495</v>
+        <v>-0.043368558802472</v>
       </c>
       <c r="C88">
-        <v>0.01411182983778718</v>
+        <v>0.009408818079690398</v>
       </c>
       <c r="D88">
-        <v>0.01511920309515436</v>
+        <v>0.01953027540203104</v>
       </c>
       <c r="E88">
-        <v>-0.01570529039050622</v>
+        <v>-0.01253197151264467</v>
       </c>
       <c r="F88">
-        <v>0.0005227206727680938</v>
+        <v>-0.01913364574531629</v>
       </c>
       <c r="G88">
-        <v>-0.05954690403834276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0007564773035387391</v>
+      </c>
+      <c r="H88">
+        <v>0.01940960495594008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.109728130060255</v>
+        <v>-0.2608214197409129</v>
       </c>
       <c r="C89">
-        <v>0.1066980843135285</v>
+        <v>0.02244446858716902</v>
       </c>
       <c r="D89">
-        <v>0.1702855052819935</v>
+        <v>-0.3484965353080418</v>
       </c>
       <c r="E89">
-        <v>0.263209210429676</v>
+        <v>0.01854189854673888</v>
       </c>
       <c r="F89">
-        <v>0.08679485289468099</v>
+        <v>0.02777301711721004</v>
       </c>
       <c r="G89">
-        <v>-0.01990329553676909</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001574318022595075</v>
+      </c>
+      <c r="H89">
+        <v>0.009226792919183888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09324874417743317</v>
+        <v>-0.2113416569668781</v>
       </c>
       <c r="C90">
-        <v>0.1524794481211535</v>
+        <v>0.02141502273835392</v>
       </c>
       <c r="D90">
-        <v>0.1922819608899243</v>
+        <v>-0.3148931926268558</v>
       </c>
       <c r="E90">
-        <v>0.277657443695673</v>
+        <v>0.01057359929064887</v>
       </c>
       <c r="F90">
-        <v>0.03419772962524997</v>
+        <v>0.05290715940303808</v>
       </c>
       <c r="G90">
-        <v>-0.05656069420617206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01155352083237688</v>
+      </c>
+      <c r="H90">
+        <v>-0.05318769850025672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3067870253149552</v>
+        <v>-0.2284437455284947</v>
       </c>
       <c r="C91">
-        <v>-0.1320241927693094</v>
+        <v>-0.09723207217260083</v>
       </c>
       <c r="D91">
-        <v>0.09150744133174601</v>
+        <v>0.1493292380442811</v>
       </c>
       <c r="E91">
-        <v>-0.1147462807161888</v>
+        <v>0.01004188809857919</v>
       </c>
       <c r="F91">
-        <v>-0.2213477864175913</v>
+        <v>-0.08463309363905286</v>
       </c>
       <c r="G91">
-        <v>0.01843608048510157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1406700505794358</v>
+      </c>
+      <c r="H91">
+        <v>-0.1686150780309276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1777602846210331</v>
+        <v>-0.2551206081584064</v>
       </c>
       <c r="C92">
-        <v>0.09849634998166383</v>
+        <v>-0.0471401168648123</v>
       </c>
       <c r="D92">
-        <v>0.3572561729557049</v>
+        <v>-0.2402560036414871</v>
       </c>
       <c r="E92">
-        <v>0.2364983695315209</v>
+        <v>0.001091332054431559</v>
       </c>
       <c r="F92">
-        <v>-0.1148189477901709</v>
+        <v>-0.0134019013298331</v>
       </c>
       <c r="G92">
-        <v>-0.4396594333574333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02043927432957781</v>
+      </c>
+      <c r="H92">
+        <v>-0.1196631213151083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09874208033039816</v>
+        <v>-0.2367076787460639</v>
       </c>
       <c r="C93">
-        <v>0.1379939392953428</v>
+        <v>0.01187118003627144</v>
       </c>
       <c r="D93">
-        <v>0.2185397834937072</v>
+        <v>-0.323309625216397</v>
       </c>
       <c r="E93">
-        <v>0.3792609930414055</v>
+        <v>0.03228478414154826</v>
       </c>
       <c r="F93">
-        <v>-0.009372303040266088</v>
+        <v>0.05471159605703367</v>
       </c>
       <c r="G93">
-        <v>0.03587867124253859</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.008427677652774423</v>
+      </c>
+      <c r="H93">
+        <v>0.01057538480389876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3016033602748076</v>
+        <v>-0.2797094434526078</v>
       </c>
       <c r="C94">
-        <v>-0.1615202475389429</v>
+        <v>-0.09295752239949812</v>
       </c>
       <c r="D94">
-        <v>0.1864654851078964</v>
+        <v>0.1449911835466478</v>
       </c>
       <c r="E94">
-        <v>-0.1392407112073002</v>
+        <v>0.02932225568812537</v>
       </c>
       <c r="F94">
-        <v>-0.1588878573879459</v>
+        <v>-0.184425887766976</v>
       </c>
       <c r="G94">
-        <v>0.04244493648060906</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2340975453508531</v>
+      </c>
+      <c r="H94">
+        <v>-0.2836043340940226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04770576647734761</v>
+        <v>-0.05484031914088519</v>
       </c>
       <c r="C95">
-        <v>-0.0427211524910984</v>
+        <v>-0.03516668392185238</v>
       </c>
       <c r="D95">
-        <v>-0.05259329198455558</v>
+        <v>0.0850909855879301</v>
       </c>
       <c r="E95">
-        <v>-0.06722986927383592</v>
+        <v>0.08252188448840934</v>
       </c>
       <c r="F95">
-        <v>0.06959157495562238</v>
+        <v>0.006307650383756769</v>
       </c>
       <c r="G95">
-        <v>-0.2120428767638769</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.052133679125669</v>
+      </c>
+      <c r="H95">
+        <v>0.05345284546287019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1634285204417611</v>
+        <v>-0.1826028642344905</v>
       </c>
       <c r="C98">
-        <v>-0.04799279714986425</v>
+        <v>-0.05649324595121312</v>
       </c>
       <c r="D98">
-        <v>-0.03532825734027076</v>
+        <v>0.0349799742251282</v>
       </c>
       <c r="E98">
-        <v>0.1295007070603386</v>
+        <v>0.056219068157656</v>
       </c>
       <c r="F98">
-        <v>0.1309548647747769</v>
+        <v>-0.01161218989254979</v>
       </c>
       <c r="G98">
-        <v>0.3704479453184891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07933050293649477</v>
+      </c>
+      <c r="H98">
+        <v>0.3428494260830107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004987665641448318</v>
+        <v>-0.01767401760664536</v>
       </c>
       <c r="C101">
-        <v>-0.01148064274057061</v>
+        <v>-0.0004947367359515249</v>
       </c>
       <c r="D101">
-        <v>-0.01703933688299092</v>
+        <v>0.0133355614643126</v>
       </c>
       <c r="E101">
-        <v>-0.06881553907895643</v>
+        <v>-0.002568509735556873</v>
       </c>
       <c r="F101">
-        <v>0.1757411818598382</v>
+        <v>-0.01804094415234846</v>
       </c>
       <c r="G101">
-        <v>-0.08350316360454092</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1018613159933572</v>
+      </c>
+      <c r="H101">
+        <v>-0.02126968251141967</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1158225710085101</v>
+        <v>-0.1022748151471325</v>
       </c>
       <c r="C102">
-        <v>-0.04606717685002527</v>
+        <v>-0.03388038914065981</v>
       </c>
       <c r="D102">
-        <v>0.0355482556446545</v>
+        <v>0.08297029543778742</v>
       </c>
       <c r="E102">
-        <v>-0.07432872068952576</v>
+        <v>-0.003081635378300218</v>
       </c>
       <c r="F102">
-        <v>-0.0794486989889529</v>
+        <v>-0.04727688189625413</v>
       </c>
       <c r="G102">
-        <v>0.002393284203433899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07183070723544485</v>
+      </c>
+      <c r="H102">
+        <v>-0.06533235066863367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.044158149787852</v>
+        <v>-0.01539424209655279</v>
       </c>
       <c r="C103">
-        <v>-0.008002272181751221</v>
+        <v>-0.006232534122297722</v>
       </c>
       <c r="D103">
-        <v>0.01145354774640523</v>
+        <v>0.01552890935847954</v>
       </c>
       <c r="E103">
-        <v>-0.05270003817998647</v>
+        <v>-0.008354079941276111</v>
       </c>
       <c r="F103">
-        <v>0.009824553823882365</v>
+        <v>-0.006503386138596999</v>
       </c>
       <c r="G103">
-        <v>-0.04113152590163471</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00187202353925496</v>
+      </c>
+      <c r="H103">
+        <v>-0.01267901520148595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1864156770260832</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9562408242276063</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1458839580167459</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02846634070408837</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1316745669319178</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01257716849630981</v>
+      </c>
+      <c r="H104">
+        <v>-0.04917151180234908</v>
       </c>
     </row>
   </sheetData>
